--- a/data/pca/factorExposure/factorExposure_2013-03-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-25.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>5.435734494719822e-06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001944159982024124</v>
+      </c>
+      <c r="C2">
+        <v>-0.03317789391029474</v>
+      </c>
+      <c r="D2">
+        <v>-0.00130877658911958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.00159961484563325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005993906904937507</v>
+      </c>
+      <c r="C4">
+        <v>-0.08549499523100371</v>
+      </c>
+      <c r="D4">
+        <v>0.07950725357102491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004511460525704777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01357552468765897</v>
+      </c>
+      <c r="C6">
+        <v>-0.113210462713579</v>
+      </c>
+      <c r="D6">
+        <v>0.031130342619879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001832003467751551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00471328275291241</v>
+      </c>
+      <c r="C7">
+        <v>-0.05626532436947752</v>
+      </c>
+      <c r="D7">
+        <v>0.03097387011453656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002592095650615552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005668279270976464</v>
+      </c>
+      <c r="C8">
+        <v>-0.03875087476632793</v>
+      </c>
+      <c r="D8">
+        <v>0.04004492664129822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003627028714237679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004066400799964743</v>
+      </c>
+      <c r="C9">
+        <v>-0.07147335083752977</v>
+      </c>
+      <c r="D9">
+        <v>0.07085105643080249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004609249704030126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005242773142459147</v>
+      </c>
+      <c r="C10">
+        <v>-0.05891825010201723</v>
+      </c>
+      <c r="D10">
+        <v>-0.2042575488341879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002568626866736406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005315585692078704</v>
+      </c>
+      <c r="C11">
+        <v>-0.0811822641729963</v>
+      </c>
+      <c r="D11">
+        <v>0.05817700526600841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000325327791377197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00393132245954103</v>
+      </c>
+      <c r="C12">
+        <v>-0.06491606797892259</v>
+      </c>
+      <c r="D12">
+        <v>0.04502979948349639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003607823322096976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008483571623876193</v>
+      </c>
+      <c r="C13">
+        <v>-0.06689666882004142</v>
+      </c>
+      <c r="D13">
+        <v>0.06633424025630551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001029907867639921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001375996381204763</v>
+      </c>
+      <c r="C14">
+        <v>-0.04583957722000769</v>
+      </c>
+      <c r="D14">
+        <v>0.008311739863467579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009822831636159858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005826537938972224</v>
+      </c>
+      <c r="C15">
+        <v>-0.04183437289837506</v>
+      </c>
+      <c r="D15">
+        <v>0.03142051043605551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001195158443326506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004925844419257874</v>
+      </c>
+      <c r="C16">
+        <v>-0.06677048147326828</v>
+      </c>
+      <c r="D16">
+        <v>0.04430475847945668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0002998788602260492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008799479600679656</v>
+      </c>
+      <c r="C20">
+        <v>-0.06815478440780105</v>
+      </c>
+      <c r="D20">
+        <v>0.04827905711609688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005383467568058453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009793539137767773</v>
+      </c>
+      <c r="C21">
+        <v>-0.02317384128161827</v>
+      </c>
+      <c r="D21">
+        <v>0.03609854894714824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.0179659633644205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006950763801997708</v>
+      </c>
+      <c r="C22">
+        <v>-0.09495178501370881</v>
+      </c>
+      <c r="D22">
+        <v>0.1016821320189001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01828647815011162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006765606655749924</v>
+      </c>
+      <c r="C23">
+        <v>-0.09583085954376078</v>
+      </c>
+      <c r="D23">
+        <v>0.1020515831856408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001803833185481679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005046832591904129</v>
+      </c>
+      <c r="C24">
+        <v>-0.07598705085820275</v>
+      </c>
+      <c r="D24">
+        <v>0.0571562242046055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003600431048726145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002748248204528932</v>
+      </c>
+      <c r="C25">
+        <v>-0.07891438021837949</v>
+      </c>
+      <c r="D25">
+        <v>0.06397801909037559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.005855917248443279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003478308810727842</v>
+      </c>
+      <c r="C26">
+        <v>-0.04222296857931609</v>
+      </c>
+      <c r="D26">
+        <v>0.02584788974276269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004221277029380199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001085123695061016</v>
+      </c>
+      <c r="C28">
+        <v>-0.1068490743537986</v>
+      </c>
+      <c r="D28">
+        <v>-0.3189507734732792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0008421773531922049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002961344240836365</v>
+      </c>
+      <c r="C29">
+        <v>-0.04887135422752984</v>
+      </c>
+      <c r="D29">
+        <v>0.002491204756748735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003033503266806511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008960281661124567</v>
+      </c>
+      <c r="C30">
+        <v>-0.1455777372332577</v>
+      </c>
+      <c r="D30">
+        <v>0.09928139515947733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003335719298579357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006073082104947992</v>
+      </c>
+      <c r="C31">
+        <v>-0.04562796362591872</v>
+      </c>
+      <c r="D31">
+        <v>0.03203939581786063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006091419385789941</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00384607371693252</v>
+      </c>
+      <c r="C32">
+        <v>-0.04030264144659301</v>
+      </c>
+      <c r="D32">
+        <v>0.02416613304197981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002732164428016834</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007942115464131313</v>
+      </c>
+      <c r="C33">
+        <v>-0.0873063321122742</v>
+      </c>
+      <c r="D33">
+        <v>0.07069228504871794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004293286232041223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003755529824751742</v>
+      </c>
+      <c r="C34">
+        <v>-0.05894976630745883</v>
+      </c>
+      <c r="D34">
+        <v>0.0471465390029944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002451369552195062</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004701580154530699</v>
+      </c>
+      <c r="C35">
+        <v>-0.03959757699230997</v>
+      </c>
+      <c r="D35">
+        <v>0.01287438723943883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003954164654400521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001394993481732689</v>
+      </c>
+      <c r="C36">
+        <v>-0.02523057369712923</v>
+      </c>
+      <c r="D36">
+        <v>0.02062714000264504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002323122545287612</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009435929282311172</v>
+      </c>
+      <c r="C38">
+        <v>-0.03411837137812613</v>
+      </c>
+      <c r="D38">
+        <v>0.02162338590299384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01233558895446605</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001029678876380422</v>
+      </c>
+      <c r="C39">
+        <v>-0.1178748640071721</v>
+      </c>
+      <c r="D39">
+        <v>0.07133573962369567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009375144088401568</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002014154055863587</v>
+      </c>
+      <c r="C40">
+        <v>-0.08870038254849447</v>
+      </c>
+      <c r="D40">
+        <v>0.01041031161275757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002688619469182627</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007138805029444133</v>
+      </c>
+      <c r="C41">
+        <v>-0.03791416807365881</v>
+      </c>
+      <c r="D41">
+        <v>0.03519503580044566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003128462304202092</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003506563434996819</v>
+      </c>
+      <c r="C43">
+        <v>-0.05182330590495714</v>
+      </c>
+      <c r="D43">
+        <v>0.02342645115137862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00264227616019342</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003086581494290375</v>
+      </c>
+      <c r="C44">
+        <v>-0.1129392919438028</v>
+      </c>
+      <c r="D44">
+        <v>0.07001069684132852</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001531808104141783</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002292251757744394</v>
+      </c>
+      <c r="C46">
+        <v>-0.03594082715666572</v>
+      </c>
+      <c r="D46">
+        <v>0.0269409797873035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000199686456317627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002661807890835212</v>
+      </c>
+      <c r="C47">
+        <v>-0.03784124081896351</v>
+      </c>
+      <c r="D47">
+        <v>0.02541773014894046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003266039182694392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00636706807716979</v>
+      </c>
+      <c r="C48">
+        <v>-0.02948438537054278</v>
+      </c>
+      <c r="D48">
+        <v>0.03148498737906189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01303611491837015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01455860213527546</v>
+      </c>
+      <c r="C49">
+        <v>-0.1823923929208202</v>
+      </c>
+      <c r="D49">
+        <v>0.0119746385547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001304618409324829</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003498431400569367</v>
+      </c>
+      <c r="C50">
+        <v>-0.04415804593235744</v>
+      </c>
+      <c r="D50">
+        <v>0.03464536482415809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003757651268359958</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004272510972873679</v>
+      </c>
+      <c r="C51">
+        <v>-0.02495627286899871</v>
+      </c>
+      <c r="D51">
+        <v>0.02035283912152484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001175774627078983</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02018340478147941</v>
+      </c>
+      <c r="C53">
+        <v>-0.1696081711589136</v>
+      </c>
+      <c r="D53">
+        <v>0.03481817522390246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001071848008315074</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008674344136514666</v>
+      </c>
+      <c r="C54">
+        <v>-0.05650425567020478</v>
+      </c>
+      <c r="D54">
+        <v>0.04207803270653603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003431494575773832</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009301342350920137</v>
+      </c>
+      <c r="C55">
+        <v>-0.1105416393847688</v>
+      </c>
+      <c r="D55">
+        <v>0.04404861988100452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003786249447201865</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01972580899160115</v>
+      </c>
+      <c r="C56">
+        <v>-0.1765430199746641</v>
+      </c>
+      <c r="D56">
+        <v>0.03651938143200643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006915898815692005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0192752080357892</v>
+      </c>
+      <c r="C58">
+        <v>-0.1084893468880195</v>
+      </c>
+      <c r="D58">
+        <v>0.05408558070847905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006068866344334877</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009068550160200608</v>
+      </c>
+      <c r="C59">
+        <v>-0.15802948631205</v>
+      </c>
+      <c r="D59">
+        <v>-0.3056762864133494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003621991807063376</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02324613591459523</v>
+      </c>
+      <c r="C60">
+        <v>-0.2233434828322088</v>
+      </c>
+      <c r="D60">
+        <v>0.02243012048649541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01424898326375437</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002080864201930215</v>
+      </c>
+      <c r="C61">
+        <v>-0.0960755567536333</v>
+      </c>
+      <c r="D61">
+        <v>0.05613591482573067</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1700936495772317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1440963688234005</v>
+      </c>
+      <c r="C62">
+        <v>-0.08890589705925292</v>
+      </c>
+      <c r="D62">
+        <v>0.04523599430811034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0008062823205327353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006155604690081378</v>
+      </c>
+      <c r="C63">
+        <v>-0.05694688485769602</v>
+      </c>
+      <c r="D63">
+        <v>0.02525474042775746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004761865402016293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01478020886698016</v>
+      </c>
+      <c r="C64">
+        <v>-0.105237742079647</v>
+      </c>
+      <c r="D64">
+        <v>0.05868385566718355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002606956139530097</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01724536355931096</v>
+      </c>
+      <c r="C65">
+        <v>-0.1210477764560248</v>
+      </c>
+      <c r="D65">
+        <v>0.01563794873626281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007417204133927041</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01229352603658125</v>
+      </c>
+      <c r="C66">
+        <v>-0.1602777604060643</v>
+      </c>
+      <c r="D66">
+        <v>0.1103035142155505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.00384710006567662</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01549356885925024</v>
+      </c>
+      <c r="C67">
+        <v>-0.06484866826865045</v>
+      </c>
+      <c r="D67">
+        <v>0.02998346681778848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006095789476402095</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005537401603243684</v>
+      </c>
+      <c r="C68">
+        <v>-0.08667679545707026</v>
+      </c>
+      <c r="D68">
+        <v>-0.2510462530532631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002901004228839438</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005868515618013239</v>
+      </c>
+      <c r="C69">
+        <v>-0.05132134559388146</v>
+      </c>
+      <c r="D69">
+        <v>0.0380621115182524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-7.674917315810476e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001821513716487677</v>
+      </c>
+      <c r="C70">
+        <v>-0.002805833237093768</v>
+      </c>
+      <c r="D70">
+        <v>0.0003558187971319172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002605733439993222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005758930246149797</v>
+      </c>
+      <c r="C71">
+        <v>-0.09682248464484151</v>
+      </c>
+      <c r="D71">
+        <v>-0.2981307165010355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004601938820136586</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01544314932706818</v>
+      </c>
+      <c r="C72">
+        <v>-0.1499155377362867</v>
+      </c>
+      <c r="D72">
+        <v>0.02268283602641404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01180970577394042</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02923109240998266</v>
+      </c>
+      <c r="C73">
+        <v>-0.2765229403420748</v>
+      </c>
+      <c r="D73">
+        <v>0.04758243549090886</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004372917050124518</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001322703504250906</v>
+      </c>
+      <c r="C74">
+        <v>-0.105511078934002</v>
+      </c>
+      <c r="D74">
+        <v>0.03679656070319719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002136947474178907</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01067535104539602</v>
+      </c>
+      <c r="C75">
+        <v>-0.1309548857394882</v>
+      </c>
+      <c r="D75">
+        <v>0.02304158107426538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009666784781868</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02120944923420635</v>
+      </c>
+      <c r="C76">
+        <v>-0.1514155737109446</v>
+      </c>
+      <c r="D76">
+        <v>0.06308524890938255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001421350168275895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02401644376895035</v>
+      </c>
+      <c r="C77">
+        <v>-0.1341800217315545</v>
+      </c>
+      <c r="D77">
+        <v>0.05690868768944711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008404447241619564</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01425352939727379</v>
+      </c>
+      <c r="C78">
+        <v>-0.09579803057571538</v>
+      </c>
+      <c r="D78">
+        <v>0.06816119588998373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02465805944142627</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03695206134075203</v>
+      </c>
+      <c r="C79">
+        <v>-0.1573907634586787</v>
+      </c>
+      <c r="D79">
+        <v>0.03124658287593192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004782893162493342</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01048668059725448</v>
+      </c>
+      <c r="C80">
+        <v>-0.04304998995982236</v>
+      </c>
+      <c r="D80">
+        <v>0.02976016249951909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0008382966437420153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01465371031762783</v>
+      </c>
+      <c r="C81">
+        <v>-0.1287418232328529</v>
+      </c>
+      <c r="D81">
+        <v>0.04241708267994331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005838493281783531</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01954598181333272</v>
+      </c>
+      <c r="C82">
+        <v>-0.1457969842219843</v>
+      </c>
+      <c r="D82">
+        <v>0.03948321890546762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009100965261055721</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009979465775385603</v>
+      </c>
+      <c r="C83">
+        <v>-0.05759239748366571</v>
+      </c>
+      <c r="D83">
+        <v>0.0532703678155227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01281490946636468</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01162359552763301</v>
+      </c>
+      <c r="C84">
+        <v>-0.0385248879491175</v>
+      </c>
+      <c r="D84">
+        <v>-0.01049626550297528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01590700174275026</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02778226125543747</v>
+      </c>
+      <c r="C85">
+        <v>-0.1307085178713713</v>
+      </c>
+      <c r="D85">
+        <v>0.04455677956942573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0008918574864064176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005299776295054347</v>
+      </c>
+      <c r="C86">
+        <v>-0.04885784561748963</v>
+      </c>
+      <c r="D86">
+        <v>0.0215169365424255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004948634374821565</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0102805290408048</v>
+      </c>
+      <c r="C87">
+        <v>-0.1336795372448226</v>
+      </c>
+      <c r="D87">
+        <v>0.06411407329291369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01298422632511056</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003050578243847777</v>
+      </c>
+      <c r="C88">
+        <v>-0.06769138094661167</v>
+      </c>
+      <c r="D88">
+        <v>0.009342889202286335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01425371596913981</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001880823391449878</v>
+      </c>
+      <c r="C89">
+        <v>-0.1442069855333626</v>
+      </c>
+      <c r="D89">
+        <v>-0.3520229784697529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002242003405651984</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006716706457212973</v>
+      </c>
+      <c r="C90">
+        <v>-0.1205461041304258</v>
+      </c>
+      <c r="D90">
+        <v>-0.3230471962673505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001206772581100329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01016313945013027</v>
+      </c>
+      <c r="C91">
+        <v>-0.103337683974705</v>
+      </c>
+      <c r="D91">
+        <v>0.02163205134314631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008167627350694713</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0002503590105057042</v>
+      </c>
+      <c r="C92">
+        <v>-0.1334036533041229</v>
+      </c>
+      <c r="D92">
+        <v>-0.3344487550103246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>4.783626644133601e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004650105184424994</v>
+      </c>
+      <c r="C93">
+        <v>-0.1044036056289677</v>
+      </c>
+      <c r="D93">
+        <v>-0.3166506703638458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004477667494970545</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0222757062372654</v>
+      </c>
+      <c r="C94">
+        <v>-0.1542716522248275</v>
+      </c>
+      <c r="D94">
+        <v>0.04732502415028819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004571723614745483</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01605174564680793</v>
+      </c>
+      <c r="C95">
+        <v>-0.127843041762128</v>
+      </c>
+      <c r="D95">
+        <v>0.06182464095069346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001519242360851736</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03402483932997532</v>
+      </c>
+      <c r="C97">
+        <v>-0.1913429990233838</v>
+      </c>
+      <c r="D97">
+        <v>0.0051498106592873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003747137859795917</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03571098296371476</v>
+      </c>
+      <c r="C98">
+        <v>-0.2472301214313949</v>
+      </c>
+      <c r="D98">
+        <v>0.05053853198670228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9835116986879725</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827092425415435</v>
+      </c>
+      <c r="C99">
+        <v>0.1119935597752137</v>
+      </c>
+      <c r="D99">
+        <v>-0.02710003001145726</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0007946891816028094</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003006512060554913</v>
+      </c>
+      <c r="C101">
+        <v>-0.04890343728666773</v>
+      </c>
+      <c r="D101">
+        <v>0.00296592270984612</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
